--- a/FIPS-CT.xlsx
+++ b/FIPS-CT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\03 CORE\EXCEL\___MDB GEO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E25407-15DF-4F4D-A6F8-0484B41D6875}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F5664AA-E2B7-4D43-BA10-AF4CE9C8622B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{308945B5-8A7A-4BC8-AFCD-B509857DE929}"/>
   </bookViews>
@@ -2381,9 +2381,7 @@
   </sheetPr>
   <dimension ref="A1:J170"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:K1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
